--- a/木木歌单整理.xlsx
+++ b/木木歌单整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15312" windowHeight="5172"/>
+    <workbookView windowWidth="23040" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>价格</t>
   </si>
@@ -99,15 +99,48 @@
   <si>
     <t>大眠</t>
   </si>
+  <si>
+    <t>暖心</t>
+  </si>
+  <si>
+    <t>郁可唯</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Yu4y1D71t</t>
+  </si>
+  <si>
+    <t>投稿</t>
+  </si>
+  <si>
+    <t>一直很安静</t>
+  </si>
+  <si>
+    <t>阿桑</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1uu4y1q73h</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Vh4y157kp</t>
+  </si>
+  <si>
+    <t>水果篮子</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Ph4y1y7ys</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -159,6 +192,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="微软雅黑"/>
@@ -197,36 +246,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +267,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -248,8 +283,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,7 +321,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -280,14 +337,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,37 +353,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +372,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,13 +389,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,169 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +588,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,15 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,155 +682,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -821,10 +854,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -836,10 +869,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,15 +1205,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="22.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="33.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="63" customWidth="1"/>
     <col min="7" max="11" width="11" customWidth="1"/>
@@ -1401,11 +1440,19 @@
     </row>
     <row r="13" ht="15.6" spans="1:11">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1414,11 +1461,19 @@
     </row>
     <row r="14" ht="15.6" spans="1:11">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1427,11 +1482,17 @@
     </row>
     <row r="15" ht="15.6" spans="1:11">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1440,11 +1501,17 @@
     </row>
     <row r="16" ht="15.6" spans="1:11">
       <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1570,9 +1637,9 @@
     </row>
     <row r="26" ht="15.6" spans="1:11">
       <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1596,7 +1663,7 @@
     </row>
     <row r="28" ht="15.6" spans="1:11">
       <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="4"/>
@@ -1635,7 +1702,7 @@
     </row>
     <row r="31" ht="15.6" spans="1:11">
       <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="6"/>
@@ -1687,7 +1754,7 @@
     </row>
     <row r="35" ht="15.6" spans="1:11">
       <c r="A35" s="4"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
       <c r="E35" s="6"/>
@@ -1778,7 +1845,7 @@
     </row>
     <row r="42" ht="15.6" spans="1:11">
       <c r="A42" s="4"/>
-      <c r="B42" s="9"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
       <c r="E42" s="6"/>
@@ -1869,9 +1936,9 @@
     </row>
     <row r="49" ht="15.6" spans="1:11">
       <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -1882,8 +1949,8 @@
     </row>
     <row r="50" ht="15.6" spans="1:11">
       <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="8"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2025,8 +2092,8 @@
     </row>
     <row r="61" ht="15.6" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="8"/>
       <c r="E61" s="6"/>
       <c r="F61" s="4"/>
@@ -2155,8 +2222,8 @@
     </row>
     <row r="71" ht="15.6" spans="1:11">
       <c r="A71" s="4"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="8"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -2337,8 +2404,8 @@
     </row>
     <row r="85" ht="15.6" spans="1:11">
       <c r="A85" s="4"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="8"/>
       <c r="E85" s="6"/>
       <c r="F85" s="4"/>
@@ -2428,8 +2495,8 @@
     </row>
     <row r="92" ht="15.6" spans="1:11">
       <c r="A92" s="4"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="8"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -2467,7 +2534,7 @@
     </row>
     <row r="95" ht="15.6" spans="1:11">
       <c r="A95" s="4"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="6"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -2496,7 +2563,7 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="13"/>
+      <c r="E97" s="15"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -2584,8 +2651,8 @@
     </row>
     <row r="104" ht="15.6" spans="1:11">
       <c r="A104" s="4"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="8"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -2769,7 +2836,7 @@
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="15"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -2779,9 +2846,9 @@
     </row>
     <row r="119" ht="15.6" spans="1:11">
       <c r="A119" s="4"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="4"/>
@@ -2794,7 +2861,7 @@
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="12"/>
+      <c r="D120" s="14"/>
       <c r="E120" s="6"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -2818,8 +2885,8 @@
     </row>
     <row r="122" ht="15.6" spans="1:11">
       <c r="A122" s="4"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="8"/>
       <c r="E122" s="6"/>
       <c r="F122" s="4"/>
@@ -3065,8 +3132,8 @@
     </row>
     <row r="141" ht="15.6" spans="1:11">
       <c r="A141" s="4"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="8"/>
       <c r="E141" s="6"/>
       <c r="F141" s="4"/>
@@ -3078,7 +3145,7 @@
     </row>
     <row r="142" ht="15.6" spans="1:11">
       <c r="A142" s="4"/>
-      <c r="B142" s="9"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="6"/>
       <c r="D142" s="8"/>
       <c r="E142" s="6"/>
@@ -3130,9 +3197,9 @@
     </row>
     <row r="146" ht="15.6" spans="1:11">
       <c r="A146" s="4"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="13"/>
       <c r="E146" s="6"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -3143,9 +3210,9 @@
     </row>
     <row r="147" ht="15.6" spans="1:11">
       <c r="A147" s="4"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="13"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="4"/>
@@ -3222,7 +3289,7 @@
     <row r="153" ht="15.6" spans="1:11">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
-      <c r="C153" s="14"/>
+      <c r="C153" s="16"/>
       <c r="D153" s="4"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -3247,7 +3314,7 @@
     </row>
     <row r="155" ht="15.6" spans="1:11">
       <c r="A155" s="4"/>
-      <c r="B155" s="9"/>
+      <c r="B155" s="11"/>
       <c r="C155" s="6"/>
       <c r="D155" s="4"/>
       <c r="E155" s="6"/>
@@ -3559,8 +3626,8 @@
     </row>
     <row r="179" ht="15.6" spans="1:11">
       <c r="A179" s="4"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="10"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="8"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -3666,7 +3733,7 @@
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="13"/>
+      <c r="E187" s="15"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -3728,7 +3795,7 @@
     </row>
     <row r="192" ht="15.6" spans="1:11">
       <c r="A192" s="4"/>
-      <c r="B192" s="9"/>
+      <c r="B192" s="11"/>
       <c r="C192" s="6"/>
       <c r="D192" s="4"/>
       <c r="E192" s="6"/>
@@ -3897,8 +3964,8 @@
     </row>
     <row r="205" ht="15.6" spans="1:11">
       <c r="A205" s="4"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="10"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12"/>
       <c r="D205" s="8"/>
       <c r="E205" s="6"/>
       <c r="F205" s="4"/>
@@ -3923,8 +3990,8 @@
     </row>
     <row r="207" ht="15.6" spans="1:11">
       <c r="A207" s="4"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="10"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="8"/>
       <c r="E207" s="6"/>
       <c r="F207" s="4"/>
@@ -4028,7 +4095,7 @@
     <row r="215" ht="15.6" spans="1:11">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="14"/>
+      <c r="C215" s="16"/>
       <c r="D215" s="8"/>
       <c r="E215" s="6"/>
       <c r="F215" s="4"/>
@@ -4066,8 +4133,8 @@
     </row>
     <row r="218" ht="15.6" spans="1:11">
       <c r="A218" s="4"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="10"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="12"/>
       <c r="D218" s="8"/>
       <c r="E218" s="6"/>
       <c r="F218" s="4"/>
@@ -4079,8 +4146,8 @@
     </row>
     <row r="219" ht="15.6" spans="1:11">
       <c r="A219" s="4"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="15"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="17"/>
       <c r="D219" s="8"/>
       <c r="E219" s="6"/>
       <c r="F219" s="4"/>
@@ -4105,8 +4172,8 @@
     </row>
     <row r="221" ht="15.6" spans="1:11">
       <c r="A221" s="4"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="10"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="12"/>
       <c r="D221" s="8"/>
       <c r="E221" s="6"/>
       <c r="F221" s="4"/>
@@ -4235,8 +4302,8 @@
     </row>
     <row r="231" ht="15.6" spans="1:11">
       <c r="A231" s="4"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="10"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="12"/>
       <c r="D231" s="8"/>
       <c r="E231" s="6"/>
       <c r="F231" s="4"/>
@@ -4469,8 +4536,8 @@
     </row>
     <row r="249" ht="15.6" spans="1:11">
       <c r="A249" s="4"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="10"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
       <c r="D249" s="8"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
@@ -4534,8 +4601,8 @@
     </row>
     <row r="254" ht="15.6" spans="1:11">
       <c r="A254" s="4"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="10"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12"/>
       <c r="D254" s="8"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
@@ -4836,7 +4903,7 @@
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="13"/>
+      <c r="E277" s="15"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
@@ -4846,7 +4913,7 @@
     </row>
     <row r="278" ht="15.6" spans="1:11">
       <c r="A278" s="4"/>
-      <c r="B278" s="9"/>
+      <c r="B278" s="11"/>
       <c r="C278" s="6"/>
       <c r="D278" s="8"/>
       <c r="E278" s="4"/>
@@ -5015,7 +5082,7 @@
     </row>
     <row r="291" ht="15.6" spans="1:11">
       <c r="A291" s="4"/>
-      <c r="B291" s="9"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="6"/>
       <c r="D291" s="4"/>
       <c r="E291" s="6"/>
@@ -5132,7 +5199,7 @@
     </row>
     <row r="300" ht="15.6" spans="1:11">
       <c r="A300" s="4"/>
-      <c r="B300" s="9"/>
+      <c r="B300" s="11"/>
       <c r="C300" s="6"/>
       <c r="D300" s="8"/>
       <c r="E300" s="6"/>
@@ -5288,9 +5355,9 @@
     </row>
     <row r="312" ht="15.6" spans="1:11">
       <c r="A312" s="4"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="11"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="13"/>
       <c r="E312" s="6"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -5301,7 +5368,7 @@
     </row>
     <row r="313" ht="15.6" spans="1:11">
       <c r="A313" s="4"/>
-      <c r="B313" s="9"/>
+      <c r="B313" s="11"/>
       <c r="C313" s="6"/>
       <c r="D313" s="4"/>
       <c r="E313" s="6"/>
@@ -5626,7 +5693,7 @@
     </row>
     <row r="338" ht="15.6" spans="1:11">
       <c r="A338" s="4"/>
-      <c r="B338" s="9"/>
+      <c r="B338" s="11"/>
       <c r="C338" s="6"/>
       <c r="D338" s="8"/>
       <c r="E338" s="6"/>
@@ -5652,7 +5719,7 @@
     </row>
     <row r="340" ht="15.6" spans="1:11">
       <c r="A340" s="4"/>
-      <c r="B340" s="9"/>
+      <c r="B340" s="11"/>
       <c r="C340" s="6"/>
       <c r="D340" s="4"/>
       <c r="E340" s="6"/>
@@ -5665,8 +5732,8 @@
     </row>
     <row r="341" ht="15.6" spans="1:11">
       <c r="A341" s="4"/>
-      <c r="B341" s="9"/>
-      <c r="C341" s="15"/>
+      <c r="B341" s="11"/>
+      <c r="C341" s="17"/>
       <c r="D341" s="8"/>
       <c r="E341" s="6"/>
       <c r="F341" s="4"/>
@@ -5678,7 +5745,7 @@
     </row>
     <row r="342" ht="15.6" spans="1:11">
       <c r="A342" s="4"/>
-      <c r="B342" s="9"/>
+      <c r="B342" s="11"/>
       <c r="C342" s="6"/>
       <c r="D342" s="4"/>
       <c r="E342" s="6"/>
@@ -5769,9 +5836,9 @@
     </row>
     <row r="349" ht="15.6" spans="1:11">
       <c r="A349" s="4"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="10"/>
-      <c r="D349" s="11"/>
+      <c r="B349" s="11"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="13"/>
       <c r="E349" s="6"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
@@ -5889,7 +5956,7 @@
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="13"/>
+      <c r="E358" s="15"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
@@ -6354,9 +6421,9 @@
     </row>
     <row r="394" ht="15.6" spans="1:11">
       <c r="A394" s="4"/>
-      <c r="B394" s="9"/>
-      <c r="C394" s="15"/>
-      <c r="D394" s="11"/>
+      <c r="B394" s="11"/>
+      <c r="C394" s="17"/>
+      <c r="D394" s="13"/>
       <c r="E394" s="6"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
@@ -6369,6 +6436,11 @@
   <autoFilter ref="A1:F393">
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1" display="https://www.bilibili.com/video/BV1Yu4y1D71t"/>
+    <hyperlink ref="D14" r:id="rId2" display="https://www.bilibili.com/video/BV1uu4y1q73h"/>
+    <hyperlink ref="D15" r:id="rId3" display="https://www.bilibili.com/video/BV1Vh4y157kp"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
